--- a/data/pca/factorExposure/factorExposure_2016-01-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01760465437053808</v>
+        <v>0.01919356964187845</v>
       </c>
       <c r="C2">
-        <v>-0.04331325518061619</v>
+        <v>-0.03830654148394155</v>
       </c>
       <c r="D2">
-        <v>-0.1072506967744199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1174374086587027</v>
+      </c>
+      <c r="E2">
+        <v>0.08816576200589295</v>
+      </c>
+      <c r="F2">
+        <v>0.002775070992645899</v>
+      </c>
+      <c r="G2">
+        <v>0.02722343024157003</v>
+      </c>
+      <c r="H2">
+        <v>0.09204534933042997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0257184743170311</v>
+        <v>0.01521207128847322</v>
       </c>
       <c r="C3">
-        <v>-0.07878525210651979</v>
+        <v>-0.04322425000159932</v>
       </c>
       <c r="D3">
-        <v>-0.1609932774739108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08074899041877326</v>
+      </c>
+      <c r="E3">
+        <v>0.1081433519803874</v>
+      </c>
+      <c r="F3">
+        <v>-0.03787643382545871</v>
+      </c>
+      <c r="G3">
+        <v>0.08576028438561101</v>
+      </c>
+      <c r="H3">
+        <v>0.06052121747992287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05680712853071693</v>
+        <v>0.05938721843735731</v>
       </c>
       <c r="C4">
-        <v>-0.05725814986030359</v>
+        <v>-0.06771545924065828</v>
       </c>
       <c r="D4">
-        <v>-0.1280777203699139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1285731940603774</v>
+      </c>
+      <c r="E4">
+        <v>0.07162699449459702</v>
+      </c>
+      <c r="F4">
+        <v>-0.007127436523752191</v>
+      </c>
+      <c r="G4">
+        <v>-0.0273971524622866</v>
+      </c>
+      <c r="H4">
+        <v>-0.02924464912705039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04073996274644718</v>
+        <v>0.03970135685508968</v>
       </c>
       <c r="C6">
-        <v>-0.02673995957730725</v>
+        <v>-0.0270384043229978</v>
       </c>
       <c r="D6">
-        <v>-0.1210925398700911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1264589422002521</v>
+      </c>
+      <c r="E6">
+        <v>0.04495383254647041</v>
+      </c>
+      <c r="F6">
+        <v>-0.009967492223771635</v>
+      </c>
+      <c r="G6">
+        <v>0.01070071245996258</v>
+      </c>
+      <c r="H6">
+        <v>0.003750557392877362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02474675281435616</v>
+        <v>0.01905427267625794</v>
       </c>
       <c r="C7">
-        <v>-0.02926192056097093</v>
+        <v>-0.0363656228893239</v>
       </c>
       <c r="D7">
-        <v>-0.09142164719963226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09089580535500448</v>
+      </c>
+      <c r="E7">
+        <v>0.05609435255937989</v>
+      </c>
+      <c r="F7">
+        <v>-0.01733732331579073</v>
+      </c>
+      <c r="G7">
+        <v>-0.05020085588574744</v>
+      </c>
+      <c r="H7">
+        <v>0.08849266823233662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.006358471460511982</v>
+        <v>0.007467560271831071</v>
       </c>
       <c r="C8">
-        <v>-0.03931578392542642</v>
+        <v>-0.038098630104732</v>
       </c>
       <c r="D8">
-        <v>-0.07332820475014155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07825872757089503</v>
+      </c>
+      <c r="E8">
+        <v>0.0417717554089507</v>
+      </c>
+      <c r="F8">
+        <v>-0.02476795520014659</v>
+      </c>
+      <c r="G8">
+        <v>-0.002638436386603696</v>
+      </c>
+      <c r="H8">
+        <v>0.025078518224106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03894972052774688</v>
+        <v>0.0427811945873739</v>
       </c>
       <c r="C9">
-        <v>-0.0424472725905065</v>
+        <v>-0.05627677305063763</v>
       </c>
       <c r="D9">
-        <v>-0.1003412158058162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1108748329574026</v>
+      </c>
+      <c r="E9">
+        <v>0.0473649636805298</v>
+      </c>
+      <c r="F9">
+        <v>0.00583267363689835</v>
+      </c>
+      <c r="G9">
+        <v>-0.03255190983696514</v>
+      </c>
+      <c r="H9">
+        <v>-0.001472279853322443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08335785526112212</v>
+        <v>0.1197287644074585</v>
       </c>
       <c r="C10">
-        <v>0.1924277998882744</v>
+        <v>0.1946060494728228</v>
       </c>
       <c r="D10">
-        <v>-0.01469502101749644</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0003141579908048998</v>
+      </c>
+      <c r="E10">
+        <v>0.05009960694564657</v>
+      </c>
+      <c r="F10">
+        <v>-0.01343577803370459</v>
+      </c>
+      <c r="G10">
+        <v>-0.02977708164208856</v>
+      </c>
+      <c r="H10">
+        <v>-0.02420933971848521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03819986601789523</v>
+        <v>0.03174153084117406</v>
       </c>
       <c r="C11">
-        <v>-0.04375819860919025</v>
+        <v>-0.04449766012828953</v>
       </c>
       <c r="D11">
-        <v>-0.06589230544134289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05917666220268405</v>
+      </c>
+      <c r="E11">
+        <v>0.01793467468035327</v>
+      </c>
+      <c r="F11">
+        <v>-0.004970941059041771</v>
+      </c>
+      <c r="G11">
+        <v>-0.02907148926289892</v>
+      </c>
+      <c r="H11">
+        <v>0.05322096473537411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04339212823750353</v>
+        <v>0.03569660432696677</v>
       </c>
       <c r="C12">
-        <v>-0.04119568293477293</v>
+        <v>-0.04484280494694829</v>
       </c>
       <c r="D12">
-        <v>-0.05860611194021403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0566834172651217</v>
+      </c>
+      <c r="E12">
+        <v>0.02884270562753501</v>
+      </c>
+      <c r="F12">
+        <v>0.002212462892712346</v>
+      </c>
+      <c r="G12">
+        <v>-0.02876982821990979</v>
+      </c>
+      <c r="H12">
+        <v>0.06048831923429481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01596699644150479</v>
+        <v>0.01961486822935624</v>
       </c>
       <c r="C13">
-        <v>-0.03634339542508087</v>
+        <v>-0.03828127025396583</v>
       </c>
       <c r="D13">
-        <v>-0.1293545023214546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1369643547553847</v>
+      </c>
+      <c r="E13">
+        <v>0.08603169460630997</v>
+      </c>
+      <c r="F13">
+        <v>-0.01483785291419613</v>
+      </c>
+      <c r="G13">
+        <v>-0.0357789498882807</v>
+      </c>
+      <c r="H13">
+        <v>0.07192982297937758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01473844616357128</v>
+        <v>0.008798540016296277</v>
       </c>
       <c r="C14">
-        <v>-0.02352670277028444</v>
+        <v>-0.02680644335573165</v>
       </c>
       <c r="D14">
-        <v>-0.08214740670504453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08181605002234622</v>
+      </c>
+      <c r="E14">
+        <v>0.05423992432424869</v>
+      </c>
+      <c r="F14">
+        <v>0.01085593291135445</v>
+      </c>
+      <c r="G14">
+        <v>-0.02833024483487633</v>
+      </c>
+      <c r="H14">
+        <v>0.08541218180742317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001024315139284333</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.005960387545701229</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02094207246474671</v>
+      </c>
+      <c r="E15">
+        <v>0.003968446117825138</v>
+      </c>
+      <c r="F15">
+        <v>0.002612072913033721</v>
+      </c>
+      <c r="G15">
+        <v>0.002689024941196467</v>
+      </c>
+      <c r="H15">
+        <v>0.01190695363913384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03952280941679212</v>
+        <v>0.03285448493078372</v>
       </c>
       <c r="C16">
-        <v>-0.04792682083137476</v>
+        <v>-0.04690459253594869</v>
       </c>
       <c r="D16">
-        <v>-0.0674903090596865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06234200569302898</v>
+      </c>
+      <c r="E16">
+        <v>0.03019157117541376</v>
+      </c>
+      <c r="F16">
+        <v>0.01140084647379056</v>
+      </c>
+      <c r="G16">
+        <v>-0.02599152253228433</v>
+      </c>
+      <c r="H16">
+        <v>0.05963711257867894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01389289127108193</v>
+        <v>0.01315010596264245</v>
       </c>
       <c r="C19">
-        <v>-0.03761044573221637</v>
+        <v>-0.03371707263866661</v>
       </c>
       <c r="D19">
-        <v>-0.1753681419944184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1327616298755574</v>
+      </c>
+      <c r="E19">
+        <v>0.08086346082653685</v>
+      </c>
+      <c r="F19">
+        <v>0.02940415234947725</v>
+      </c>
+      <c r="G19">
+        <v>-0.00116138782922261</v>
+      </c>
+      <c r="H19">
+        <v>0.04922879150685733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01992778012836346</v>
+        <v>0.01624399318076633</v>
       </c>
       <c r="C20">
-        <v>-0.03546501134998363</v>
+        <v>-0.03722016658813266</v>
       </c>
       <c r="D20">
-        <v>-0.09600445309075553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09264805980960424</v>
+      </c>
+      <c r="E20">
+        <v>0.0670831366817006</v>
+      </c>
+      <c r="F20">
+        <v>0.01061517557997136</v>
+      </c>
+      <c r="G20">
+        <v>-0.01900468619414942</v>
+      </c>
+      <c r="H20">
+        <v>0.04432056636587785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01345926678945255</v>
+        <v>0.01609411455179335</v>
       </c>
       <c r="C21">
-        <v>-0.02930634850635594</v>
+        <v>-0.03962906553987435</v>
       </c>
       <c r="D21">
-        <v>-0.1313618977710864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1292989502922464</v>
+      </c>
+      <c r="E21">
+        <v>0.1103332725906174</v>
+      </c>
+      <c r="F21">
+        <v>0.01721706939260496</v>
+      </c>
+      <c r="G21">
+        <v>-0.07171455829673828</v>
+      </c>
+      <c r="H21">
+        <v>0.07799353099603615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001867648018308293</v>
+        <v>0.005301401681275606</v>
       </c>
       <c r="C22">
-        <v>-0.01050719592737946</v>
+        <v>-0.03320223290852377</v>
       </c>
       <c r="D22">
-        <v>-0.04805503226972816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1107733157215445</v>
+      </c>
+      <c r="E22">
+        <v>0.03349940822569461</v>
+      </c>
+      <c r="F22">
+        <v>-0.06946833509210476</v>
+      </c>
+      <c r="G22">
+        <v>0.05252128745430962</v>
+      </c>
+      <c r="H22">
+        <v>-0.01946124640171895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001821286836080427</v>
+        <v>0.005396825336364619</v>
       </c>
       <c r="C23">
-        <v>-0.01034052980570572</v>
+        <v>-0.03355833240000305</v>
       </c>
       <c r="D23">
-        <v>-0.04774707489582197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1100374442508246</v>
+      </c>
+      <c r="E23">
+        <v>0.03362904732488666</v>
+      </c>
+      <c r="F23">
+        <v>-0.06938161321274255</v>
+      </c>
+      <c r="G23">
+        <v>0.05182478328074058</v>
+      </c>
+      <c r="H23">
+        <v>-0.0199562160747156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03687277119300214</v>
+        <v>0.03377969511388492</v>
       </c>
       <c r="C24">
-        <v>-0.04802774845410183</v>
+        <v>-0.05418537498755621</v>
       </c>
       <c r="D24">
-        <v>-0.06781001123944333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06631594761295205</v>
+      </c>
+      <c r="E24">
+        <v>0.03228528635366323</v>
+      </c>
+      <c r="F24">
+        <v>0.009703720133884743</v>
+      </c>
+      <c r="G24">
+        <v>-0.0428404544488959</v>
+      </c>
+      <c r="H24">
+        <v>0.06241099024209867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0455055133646985</v>
+        <v>0.03891684768524042</v>
       </c>
       <c r="C25">
-        <v>-0.05098933166039872</v>
+        <v>-0.05316603793048908</v>
       </c>
       <c r="D25">
-        <v>-0.06655905038611799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06061400104328137</v>
+      </c>
+      <c r="E25">
+        <v>0.03054365437805652</v>
+      </c>
+      <c r="F25">
+        <v>-0.004629715251552593</v>
+      </c>
+      <c r="G25">
+        <v>-0.03909213820746796</v>
+      </c>
+      <c r="H25">
+        <v>0.04924542136607955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02361445949688409</v>
+        <v>0.02079550220437899</v>
       </c>
       <c r="C26">
-        <v>-0.01079970786707569</v>
+        <v>-0.01807497781300186</v>
       </c>
       <c r="D26">
-        <v>-0.05881477983420146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06462913740177217</v>
+      </c>
+      <c r="E26">
+        <v>0.03646069541268144</v>
+      </c>
+      <c r="F26">
+        <v>0.00917285919462847</v>
+      </c>
+      <c r="G26">
+        <v>-0.01889431861179163</v>
+      </c>
+      <c r="H26">
+        <v>0.05413717509795864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1148045603831637</v>
+        <v>0.1693848123397974</v>
       </c>
       <c r="C28">
-        <v>0.2764856260632179</v>
+        <v>0.2585026482441796</v>
       </c>
       <c r="D28">
-        <v>0.02322286744253904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.009584478572763448</v>
+      </c>
+      <c r="E28">
+        <v>0.07197682574496622</v>
+      </c>
+      <c r="F28">
+        <v>-0.00405300538631356</v>
+      </c>
+      <c r="G28">
+        <v>-0.06720227525307418</v>
+      </c>
+      <c r="H28">
+        <v>-0.02180152975895387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00868584974208571</v>
+        <v>0.008325377021914552</v>
       </c>
       <c r="C29">
-        <v>-0.02286531727271124</v>
+        <v>-0.02466902543415747</v>
       </c>
       <c r="D29">
-        <v>-0.06481329571835073</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07412882979559265</v>
+      </c>
+      <c r="E29">
+        <v>0.05877657140692853</v>
+      </c>
+      <c r="F29">
+        <v>-0.002226817569239401</v>
+      </c>
+      <c r="G29">
+        <v>-0.04099792552573879</v>
+      </c>
+      <c r="H29">
+        <v>0.0791872815976126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04243654820301937</v>
+        <v>0.04359861604904947</v>
       </c>
       <c r="C30">
-        <v>-0.03370279550300221</v>
+        <v>-0.05526240092652481</v>
       </c>
       <c r="D30">
-        <v>-0.1494347304004285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1691326534696259</v>
+      </c>
+      <c r="E30">
+        <v>0.03703499079066658</v>
+      </c>
+      <c r="F30">
+        <v>0.003024267708518797</v>
+      </c>
+      <c r="G30">
+        <v>0.01902062842247762</v>
+      </c>
+      <c r="H30">
+        <v>0.01819945836358811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06844185766418645</v>
+        <v>0.06183961513704293</v>
       </c>
       <c r="C31">
-        <v>-0.05464417709345046</v>
+        <v>-0.0723773063739853</v>
       </c>
       <c r="D31">
-        <v>-0.06466545148880311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05209333336644272</v>
+      </c>
+      <c r="E31">
+        <v>0.06007022074970268</v>
+      </c>
+      <c r="F31">
+        <v>-0.03598692569081323</v>
+      </c>
+      <c r="G31">
+        <v>-0.02792478790960956</v>
+      </c>
+      <c r="H31">
+        <v>0.0261291060338014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.003155642470392355</v>
+        <v>0.01139548501438522</v>
       </c>
       <c r="C32">
-        <v>-0.007219457680028771</v>
+        <v>-0.02100868161973946</v>
       </c>
       <c r="D32">
-        <v>-0.07641659569871689</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09028018604455225</v>
+      </c>
+      <c r="E32">
+        <v>0.09625158792635499</v>
+      </c>
+      <c r="F32">
+        <v>0.004451675412584199</v>
+      </c>
+      <c r="G32">
+        <v>-0.0670537204095156</v>
+      </c>
+      <c r="H32">
+        <v>0.05503430791214984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02892347371020195</v>
+        <v>0.026060936677175</v>
       </c>
       <c r="C33">
-        <v>-0.03316475191007855</v>
+        <v>-0.04436666695969335</v>
       </c>
       <c r="D33">
-        <v>-0.1369364009820906</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1298051892272535</v>
+      </c>
+      <c r="E33">
+        <v>0.06421083970752002</v>
+      </c>
+      <c r="F33">
+        <v>-0.0107763334887301</v>
+      </c>
+      <c r="G33">
+        <v>-0.03325153075184269</v>
+      </c>
+      <c r="H33">
+        <v>0.05280399470540527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03924356907819345</v>
+        <v>0.0333214779745616</v>
       </c>
       <c r="C34">
-        <v>-0.05908067771827279</v>
+        <v>-0.06053137209539726</v>
       </c>
       <c r="D34">
-        <v>-0.06558111817409289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05959856690264468</v>
+      </c>
+      <c r="E34">
+        <v>0.01408873420536515</v>
+      </c>
+      <c r="F34">
+        <v>0.00674937547396607</v>
+      </c>
+      <c r="G34">
+        <v>-0.04345614300815007</v>
+      </c>
+      <c r="H34">
+        <v>0.06934835250974772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0002996748831997553</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-6.105323826253132e-06</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.001880127404396261</v>
+      </c>
+      <c r="E35">
+        <v>2.946765032240479e-05</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004574008242778167</v>
+      </c>
+      <c r="G35">
+        <v>-0.0007057715573721076</v>
+      </c>
+      <c r="H35">
+        <v>0.002372536461343245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02052699933651646</v>
+        <v>0.01856965446933951</v>
       </c>
       <c r="C36">
-        <v>-0.009545936089319765</v>
+        <v>-0.01751781584301788</v>
       </c>
       <c r="D36">
-        <v>-0.07354511761979578</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07395225516330173</v>
+      </c>
+      <c r="E36">
+        <v>0.05137870866322423</v>
+      </c>
+      <c r="F36">
+        <v>0.006036659979097838</v>
+      </c>
+      <c r="G36">
+        <v>-0.0299453439030806</v>
+      </c>
+      <c r="H36">
+        <v>0.04422270136692092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03058252378066663</v>
+        <v>0.02408219399152054</v>
       </c>
       <c r="C38">
-        <v>-0.02205866902920981</v>
+        <v>-0.0235888300809452</v>
       </c>
       <c r="D38">
-        <v>-0.05484116298122674</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05954481471960895</v>
+      </c>
+      <c r="E38">
+        <v>0.04229748962807977</v>
+      </c>
+      <c r="F38">
+        <v>0.00700745925493851</v>
+      </c>
+      <c r="G38">
+        <v>0.0259468030867047</v>
+      </c>
+      <c r="H38">
+        <v>0.03472280938574692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04691762408277073</v>
+        <v>0.03999629015339535</v>
       </c>
       <c r="C39">
-        <v>-0.05547508030165962</v>
+        <v>-0.06236996562391618</v>
       </c>
       <c r="D39">
-        <v>-0.08256525793326015</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0967319107422184</v>
+      </c>
+      <c r="E39">
+        <v>0.02669635384876348</v>
+      </c>
+      <c r="F39">
+        <v>0.0245624347041684</v>
+      </c>
+      <c r="G39">
+        <v>-0.02775550886163664</v>
+      </c>
+      <c r="H39">
+        <v>0.07901380660306065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01277058796882681</v>
+        <v>0.0156469610159876</v>
       </c>
       <c r="C40">
-        <v>-0.05199237313318549</v>
+        <v>-0.04131539381905588</v>
       </c>
       <c r="D40">
-        <v>-0.09049437834902553</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0925083655291099</v>
+      </c>
+      <c r="E40">
+        <v>0.09257053020715621</v>
+      </c>
+      <c r="F40">
+        <v>-0.04272892331904884</v>
+      </c>
+      <c r="G40">
+        <v>-0.02140652644743771</v>
+      </c>
+      <c r="H40">
+        <v>0.1320036504021456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02544383805483144</v>
+        <v>0.02277578075886449</v>
       </c>
       <c r="C41">
-        <v>-0.001182458505341372</v>
+        <v>-0.01072772886334906</v>
       </c>
       <c r="D41">
-        <v>-0.08021273441278493</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05996111166688594</v>
+      </c>
+      <c r="E41">
+        <v>0.0641855408810474</v>
+      </c>
+      <c r="F41">
+        <v>0.006510021953933048</v>
+      </c>
+      <c r="G41">
+        <v>-0.01456729384470382</v>
+      </c>
+      <c r="H41">
+        <v>0.04147436261099043</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03903270569885819</v>
+        <v>0.02784777854899874</v>
       </c>
       <c r="C43">
-        <v>-0.01683276052585236</v>
+        <v>-0.0228681842167782</v>
       </c>
       <c r="D43">
-        <v>-0.1208095387635774</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.09136542102185775</v>
+      </c>
+      <c r="E43">
+        <v>0.0584816443529434</v>
+      </c>
+      <c r="F43">
+        <v>-0.002138216611481</v>
+      </c>
+      <c r="G43">
+        <v>-0.02203718448428986</v>
+      </c>
+      <c r="H43">
+        <v>0.06014287052947009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01562439861602365</v>
+        <v>0.01833921801561947</v>
       </c>
       <c r="C44">
-        <v>-0.04800193837778802</v>
+        <v>-0.04241821400630248</v>
       </c>
       <c r="D44">
-        <v>-0.08003955693532307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08938243882359229</v>
+      </c>
+      <c r="E44">
+        <v>0.07949082168634748</v>
+      </c>
+      <c r="F44">
+        <v>0.01314599137558547</v>
+      </c>
+      <c r="G44">
+        <v>-0.03647340476348056</v>
+      </c>
+      <c r="H44">
+        <v>0.04922132613439791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02110912768213382</v>
+        <v>0.01753175862714187</v>
       </c>
       <c r="C46">
-        <v>-0.02132741561806962</v>
+        <v>-0.02932960440133008</v>
       </c>
       <c r="D46">
-        <v>-0.07024998663314588</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.07837389739481196</v>
+      </c>
+      <c r="E46">
+        <v>0.06077884574233296</v>
+      </c>
+      <c r="F46">
+        <v>0.02188238326949564</v>
+      </c>
+      <c r="G46">
+        <v>-0.05193461994232637</v>
+      </c>
+      <c r="H46">
+        <v>0.08024881082563973</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09643110875679103</v>
+        <v>0.092486048900877</v>
       </c>
       <c r="C47">
-        <v>-0.07187293527347555</v>
+        <v>-0.09057964557086522</v>
       </c>
       <c r="D47">
-        <v>-0.0388939297603352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03128185599114349</v>
+      </c>
+      <c r="E47">
+        <v>0.04863559749612525</v>
+      </c>
+      <c r="F47">
+        <v>-0.02166181112835153</v>
+      </c>
+      <c r="G47">
+        <v>-0.05395926663693674</v>
+      </c>
+      <c r="H47">
+        <v>-0.008972789327354428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02281121406741304</v>
+        <v>0.02026094127330829</v>
       </c>
       <c r="C48">
-        <v>-0.01041882725302256</v>
+        <v>-0.01967976562740069</v>
       </c>
       <c r="D48">
-        <v>-0.07461389168857264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07492535041679209</v>
+      </c>
+      <c r="E48">
+        <v>0.06196770879915858</v>
+      </c>
+      <c r="F48">
+        <v>0.01970267313165177</v>
+      </c>
+      <c r="G48">
+        <v>-0.03136155638589817</v>
+      </c>
+      <c r="H48">
+        <v>0.04529864225007278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08224652517847428</v>
+        <v>0.06927392132416982</v>
       </c>
       <c r="C50">
-        <v>-0.08147235183477623</v>
+        <v>-0.07807882406930035</v>
       </c>
       <c r="D50">
-        <v>-0.06178179388153184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05308143695122616</v>
+      </c>
+      <c r="E50">
+        <v>0.0722431297793613</v>
+      </c>
+      <c r="F50">
+        <v>-0.04709680483168548</v>
+      </c>
+      <c r="G50">
+        <v>-0.006946526981548516</v>
+      </c>
+      <c r="H50">
+        <v>0.04393052831595251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01300868208968087</v>
+        <v>0.01079618404152468</v>
       </c>
       <c r="C51">
-        <v>-0.02924465568410196</v>
+        <v>-0.02140003590543369</v>
       </c>
       <c r="D51">
-        <v>-0.09379248277287724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09045003118452379</v>
+      </c>
+      <c r="E51">
+        <v>0.04322533740282308</v>
+      </c>
+      <c r="F51">
+        <v>0.007040313107755391</v>
+      </c>
+      <c r="G51">
+        <v>-0.01597006407284923</v>
+      </c>
+      <c r="H51">
+        <v>0.0741728472840989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08332405314849152</v>
+        <v>0.09480040305360291</v>
       </c>
       <c r="C53">
-        <v>-0.08228340422986205</v>
+        <v>-0.09582617979948854</v>
       </c>
       <c r="D53">
-        <v>-0.01671438808547562</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004193272337277614</v>
+      </c>
+      <c r="E53">
+        <v>0.1017474467291904</v>
+      </c>
+      <c r="F53">
+        <v>-0.01784687268388454</v>
+      </c>
+      <c r="G53">
+        <v>-0.07555744069952719</v>
+      </c>
+      <c r="H53">
+        <v>-0.05945275627023403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03621770698272496</v>
+        <v>0.02923229115649649</v>
       </c>
       <c r="C54">
-        <v>-0.0305038932788873</v>
+        <v>-0.03548652671298607</v>
       </c>
       <c r="D54">
-        <v>-0.08111896220304203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08487745415554339</v>
+      </c>
+      <c r="E54">
+        <v>0.06160182694294458</v>
+      </c>
+      <c r="F54">
+        <v>0.0218664276778667</v>
+      </c>
+      <c r="G54">
+        <v>-0.03289906106994217</v>
+      </c>
+      <c r="H54">
+        <v>0.1031376812444218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08715847059608972</v>
+        <v>0.0908073528308055</v>
       </c>
       <c r="C55">
-        <v>-0.06309992829499621</v>
+        <v>-0.07918436740560125</v>
       </c>
       <c r="D55">
-        <v>-0.006481891856547228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01231153405832017</v>
+      </c>
+      <c r="E55">
+        <v>0.06482023170427251</v>
+      </c>
+      <c r="F55">
+        <v>-0.02212171239237431</v>
+      </c>
+      <c r="G55">
+        <v>-0.02952415445227265</v>
+      </c>
+      <c r="H55">
+        <v>-0.03875676975300373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.143659178142747</v>
+        <v>0.1445344526937942</v>
       </c>
       <c r="C56">
-        <v>-0.09181696579403105</v>
+        <v>-0.1173967270915602</v>
       </c>
       <c r="D56">
-        <v>-0.001245843467965028</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02034424236138128</v>
+      </c>
+      <c r="E56">
+        <v>0.0551571613118058</v>
+      </c>
+      <c r="F56">
+        <v>-0.01559076859755192</v>
+      </c>
+      <c r="G56">
+        <v>-0.04277508573187414</v>
+      </c>
+      <c r="H56">
+        <v>-0.05056435704624263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03910512555568495</v>
+        <v>0.03763653319156657</v>
       </c>
       <c r="C58">
-        <v>0.009920972871536836</v>
+        <v>-0.02010910892053099</v>
       </c>
       <c r="D58">
-        <v>-0.4352822037645705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3723223596511332</v>
+      </c>
+      <c r="E58">
+        <v>0.215214930400326</v>
+      </c>
+      <c r="F58">
+        <v>-0.09230964872882522</v>
+      </c>
+      <c r="G58">
+        <v>0.4555376406150283</v>
+      </c>
+      <c r="H58">
+        <v>-0.3019616578711034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1289695202593509</v>
+        <v>0.1585015304107459</v>
       </c>
       <c r="C59">
-        <v>0.2093021577048969</v>
+        <v>0.1835502769037485</v>
       </c>
       <c r="D59">
-        <v>-0.0241450701964681</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04275178962962463</v>
+      </c>
+      <c r="E59">
+        <v>0.009621792190313257</v>
+      </c>
+      <c r="F59">
+        <v>0.02953831023944781</v>
+      </c>
+      <c r="G59">
+        <v>0.01612842031850802</v>
+      </c>
+      <c r="H59">
+        <v>-0.01986311301149293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2539242276827067</v>
+        <v>0.2316863486713548</v>
       </c>
       <c r="C60">
-        <v>-0.06684499438003581</v>
+        <v>-0.0882721397149822</v>
       </c>
       <c r="D60">
-        <v>-0.1036586831050957</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1411692875503284</v>
+      </c>
+      <c r="E60">
+        <v>-0.357062533060533</v>
+      </c>
+      <c r="F60">
+        <v>-0.1230731044778172</v>
+      </c>
+      <c r="G60">
+        <v>0.02518253836844797</v>
+      </c>
+      <c r="H60">
+        <v>-0.05589657548643279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04943090103190974</v>
+        <v>0.04312609413509984</v>
       </c>
       <c r="C61">
-        <v>-0.05052705390178947</v>
+        <v>-0.0560311953708508</v>
       </c>
       <c r="D61">
-        <v>-0.09322414872385607</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08923483844272602</v>
+      </c>
+      <c r="E61">
+        <v>0.02542637050267774</v>
+      </c>
+      <c r="F61">
+        <v>0.01094007423836042</v>
+      </c>
+      <c r="G61">
+        <v>-0.04030816738787562</v>
+      </c>
+      <c r="H61">
+        <v>0.06461181034416776</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01603152007856866</v>
+        <v>0.0167913065746057</v>
       </c>
       <c r="C63">
-        <v>-0.02079082659704674</v>
+        <v>-0.02791346428074458</v>
       </c>
       <c r="D63">
-        <v>-0.05685469596097889</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06744297156122181</v>
+      </c>
+      <c r="E63">
+        <v>0.06116420774887635</v>
+      </c>
+      <c r="F63">
+        <v>-0.01825341994266451</v>
+      </c>
+      <c r="G63">
+        <v>-0.01533542032928923</v>
+      </c>
+      <c r="H63">
+        <v>0.03753957555510892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05471712563043676</v>
+        <v>0.05659485621173158</v>
       </c>
       <c r="C64">
-        <v>-0.0487924710803908</v>
+        <v>-0.06804815529325342</v>
       </c>
       <c r="D64">
-        <v>-0.06467286727553206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05259742161843427</v>
+      </c>
+      <c r="E64">
+        <v>0.03948362427868629</v>
+      </c>
+      <c r="F64">
+        <v>0.03196279634406925</v>
+      </c>
+      <c r="G64">
+        <v>-0.06907498712653613</v>
+      </c>
+      <c r="H64">
+        <v>0.02075085118715006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05873718555681095</v>
+        <v>0.05167585719730418</v>
       </c>
       <c r="C65">
-        <v>-0.01164804543368625</v>
+        <v>-0.02169188752473175</v>
       </c>
       <c r="D65">
-        <v>-0.1055108493030831</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1166949194732555</v>
+      </c>
+      <c r="E65">
+        <v>0.01166442213052392</v>
+      </c>
+      <c r="F65">
+        <v>-0.01885715443404099</v>
+      </c>
+      <c r="G65">
+        <v>0.04857773649975446</v>
+      </c>
+      <c r="H65">
+        <v>-0.02235777381921092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05123288957796635</v>
+        <v>0.0471488627502687</v>
       </c>
       <c r="C66">
-        <v>-0.05669930646474244</v>
+        <v>-0.06928671302143831</v>
       </c>
       <c r="D66">
-        <v>-0.1105593686046743</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1195710422637503</v>
+      </c>
+      <c r="E66">
+        <v>0.03005729596802799</v>
+      </c>
+      <c r="F66">
+        <v>0.0120351255391309</v>
+      </c>
+      <c r="G66">
+        <v>-0.01649635104609645</v>
+      </c>
+      <c r="H66">
+        <v>0.0604890042333446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05189066106466261</v>
+        <v>0.04222547965023007</v>
       </c>
       <c r="C67">
-        <v>-0.0264892797263102</v>
+        <v>-0.02787079793994545</v>
       </c>
       <c r="D67">
-        <v>-0.02717156951833677</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02440229160910719</v>
+      </c>
+      <c r="E67">
+        <v>0.02555317223539045</v>
+      </c>
+      <c r="F67">
+        <v>-0.0004124918733388687</v>
+      </c>
+      <c r="G67">
+        <v>0.01728633375245449</v>
+      </c>
+      <c r="H67">
+        <v>0.03488857931755782</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1472408561711067</v>
+        <v>0.1753921936584275</v>
       </c>
       <c r="C68">
-        <v>0.2837755407690481</v>
+        <v>0.2307626881636361</v>
       </c>
       <c r="D68">
-        <v>0.03025088670875828</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.001345385370408967</v>
+      </c>
+      <c r="E68">
+        <v>0.0542138363260285</v>
+      </c>
+      <c r="F68">
+        <v>-0.02475085087807098</v>
+      </c>
+      <c r="G68">
+        <v>0.00656824134168194</v>
+      </c>
+      <c r="H68">
+        <v>-0.0059158030165132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09488194284656257</v>
+        <v>0.08638681923856976</v>
       </c>
       <c r="C69">
-        <v>-0.08318202208936185</v>
+        <v>-0.1008185596897306</v>
       </c>
       <c r="D69">
-        <v>-0.04484885995629299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04573238990728971</v>
+      </c>
+      <c r="E69">
+        <v>0.04702691140695364</v>
+      </c>
+      <c r="F69">
+        <v>0.0007695228709416554</v>
+      </c>
+      <c r="G69">
+        <v>-0.05319254015153754</v>
+      </c>
+      <c r="H69">
+        <v>0.01554615750795305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1249614913833213</v>
+        <v>0.1630970477626382</v>
       </c>
       <c r="C71">
-        <v>0.2574523510566751</v>
+        <v>0.2301689231669019</v>
       </c>
       <c r="D71">
-        <v>-0.03334940487108833</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03690024702760607</v>
+      </c>
+      <c r="E71">
+        <v>0.05572649837153375</v>
+      </c>
+      <c r="F71">
+        <v>-0.01710859576582863</v>
+      </c>
+      <c r="G71">
+        <v>-0.0419681065866258</v>
+      </c>
+      <c r="H71">
+        <v>0.004755510241875348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09776270257513868</v>
+        <v>0.1021900974264991</v>
       </c>
       <c r="C72">
-        <v>-0.04391992984213872</v>
+        <v>-0.05769567481661055</v>
       </c>
       <c r="D72">
-        <v>-0.07988684656082841</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08817415010273666</v>
+      </c>
+      <c r="E72">
+        <v>-0.01348505523853065</v>
+      </c>
+      <c r="F72">
+        <v>-0.02865559829686128</v>
+      </c>
+      <c r="G72">
+        <v>-0.05365441628094569</v>
+      </c>
+      <c r="H72">
+        <v>0.01965208930723411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3070960440050085</v>
+        <v>0.270136487045283</v>
       </c>
       <c r="C73">
-        <v>-0.005765323539440881</v>
+        <v>-0.05512217107987184</v>
       </c>
       <c r="D73">
-        <v>-0.1842825757418136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2301205393789867</v>
+      </c>
+      <c r="E73">
+        <v>-0.6491341505728196</v>
+      </c>
+      <c r="F73">
+        <v>-0.1553622349824098</v>
+      </c>
+      <c r="G73">
+        <v>0.06970922061704737</v>
+      </c>
+      <c r="H73">
+        <v>-0.0633318018674197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1070626519875096</v>
+        <v>0.1078735427438942</v>
       </c>
       <c r="C74">
-        <v>-0.08200974484815156</v>
+        <v>-0.09288548917678566</v>
       </c>
       <c r="D74">
-        <v>-0.03558744128899222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.005431046502277621</v>
+      </c>
+      <c r="E74">
+        <v>0.07603192306263359</v>
+      </c>
+      <c r="F74">
+        <v>-0.04444637535142695</v>
+      </c>
+      <c r="G74">
+        <v>-0.03167870499415353</v>
+      </c>
+      <c r="H74">
+        <v>-0.0777696348647612</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2552385441076198</v>
+        <v>0.250503005847999</v>
       </c>
       <c r="C75">
-        <v>-0.106113000799815</v>
+        <v>-0.146382454553358</v>
       </c>
       <c r="D75">
-        <v>0.07785308008211383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1231753839100035</v>
+      </c>
+      <c r="E75">
+        <v>0.05929289724889589</v>
+      </c>
+      <c r="F75">
+        <v>0.02936725417331641</v>
+      </c>
+      <c r="G75">
+        <v>-0.02111166673024174</v>
+      </c>
+      <c r="H75">
+        <v>-0.1725677715759985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1204104927271751</v>
+        <v>0.128883419089568</v>
       </c>
       <c r="C76">
-        <v>-0.08562537111446571</v>
+        <v>-0.1054309252071216</v>
       </c>
       <c r="D76">
-        <v>-0.004883459422983303</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02558944912231909</v>
+      </c>
+      <c r="E76">
+        <v>0.1085490473237378</v>
+      </c>
+      <c r="F76">
+        <v>0.001390520618273494</v>
+      </c>
+      <c r="G76">
+        <v>-0.05159781190882889</v>
+      </c>
+      <c r="H76">
+        <v>-0.05030763372139583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08012906074755809</v>
+        <v>0.06819974115701107</v>
       </c>
       <c r="C77">
-        <v>-0.01402593444668456</v>
+        <v>-0.062841017903897</v>
       </c>
       <c r="D77">
-        <v>-0.1133893822169251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1152207446952689</v>
+      </c>
+      <c r="E77">
+        <v>0.06936731954672558</v>
+      </c>
+      <c r="F77">
+        <v>0.3030632362251635</v>
+      </c>
+      <c r="G77">
+        <v>0.1679274949801873</v>
+      </c>
+      <c r="H77">
+        <v>-0.1288275254678784</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03574179199567488</v>
+        <v>0.04251415908260347</v>
       </c>
       <c r="C78">
-        <v>-0.03772928933294685</v>
+        <v>-0.05642752587613795</v>
       </c>
       <c r="D78">
-        <v>-0.09439170032599527</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1189698305104503</v>
+      </c>
+      <c r="E78">
+        <v>0.03093845484738995</v>
+      </c>
+      <c r="F78">
+        <v>-0.004871831323457134</v>
+      </c>
+      <c r="G78">
+        <v>-0.03897051579343558</v>
+      </c>
+      <c r="H78">
+        <v>0.01582999589002925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.003127497940630081</v>
+        <v>0.04047472334071008</v>
       </c>
       <c r="C79">
-        <v>0.002574812835127901</v>
+        <v>-0.06916492225536852</v>
       </c>
       <c r="D79">
-        <v>-0.01510245747430477</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05513837210238974</v>
+      </c>
+      <c r="E79">
+        <v>0.1276435217724368</v>
+      </c>
+      <c r="F79">
+        <v>-0.04451525075071763</v>
+      </c>
+      <c r="G79">
+        <v>-0.3649507143695433</v>
+      </c>
+      <c r="H79">
+        <v>-0.6818172071531596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03310868821234431</v>
+        <v>0.02730956202876525</v>
       </c>
       <c r="C80">
-        <v>-0.01653068063124251</v>
+        <v>-0.03556635023749181</v>
       </c>
       <c r="D80">
-        <v>-0.03770031697698997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03599206640716869</v>
+      </c>
+      <c r="E80">
+        <v>0.003951016186182925</v>
+      </c>
+      <c r="F80">
+        <v>0.0402178955461058</v>
+      </c>
+      <c r="G80">
+        <v>0.02981991614549107</v>
+      </c>
+      <c r="H80">
+        <v>0.0383765614175746</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1503598366679428</v>
+        <v>0.1385540613211958</v>
       </c>
       <c r="C81">
-        <v>-0.08213857689940823</v>
+        <v>-0.109072451040051</v>
       </c>
       <c r="D81">
-        <v>0.03609260395803128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07908739151588107</v>
+      </c>
+      <c r="E81">
+        <v>0.1024125844762548</v>
+      </c>
+      <c r="F81">
+        <v>0.008097550709794444</v>
+      </c>
+      <c r="G81">
+        <v>-0.03436123087064161</v>
+      </c>
+      <c r="H81">
+        <v>-0.0720888837194385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2769320949676418</v>
+        <v>0.2516710325664939</v>
       </c>
       <c r="C82">
-        <v>-0.1955669012073422</v>
+        <v>-0.2127378010630137</v>
       </c>
       <c r="D82">
-        <v>0.2391716724309339</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2300669873832512</v>
+      </c>
+      <c r="E82">
+        <v>-0.04387570388937787</v>
+      </c>
+      <c r="F82">
+        <v>-0.01122283499715945</v>
+      </c>
+      <c r="G82">
+        <v>-0.4200598482005314</v>
+      </c>
+      <c r="H82">
+        <v>0.3424925594669154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0420836889724529</v>
+        <v>0.02745159156762607</v>
       </c>
       <c r="C83">
-        <v>-0.03525324432119068</v>
+        <v>-0.04840081344219593</v>
       </c>
       <c r="D83">
-        <v>-0.07330007538207801</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05125707580806653</v>
+      </c>
+      <c r="E83">
+        <v>0.003961924742767944</v>
+      </c>
+      <c r="F83">
+        <v>0.02599821358608796</v>
+      </c>
+      <c r="G83">
+        <v>-0.002735088891426067</v>
+      </c>
+      <c r="H83">
+        <v>0.02525097808569938</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001924716785617464</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.002081040723973038</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.004334433242887058</v>
+      </c>
+      <c r="E84">
+        <v>0.01002928092439584</v>
+      </c>
+      <c r="F84">
+        <v>-0.003848394769161912</v>
+      </c>
+      <c r="G84">
+        <v>0.00437783081921576</v>
+      </c>
+      <c r="H84">
+        <v>0.007224598257765921</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1912552465479044</v>
+        <v>0.1755136790938871</v>
       </c>
       <c r="C85">
-        <v>-0.07579583826187959</v>
+        <v>-0.1110833455223744</v>
       </c>
       <c r="D85">
-        <v>0.07050135599637407</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0934284077706945</v>
+      </c>
+      <c r="E85">
+        <v>0.03421677078619299</v>
+      </c>
+      <c r="F85">
+        <v>-0.02136366766501947</v>
+      </c>
+      <c r="G85">
+        <v>-0.0601834148279037</v>
+      </c>
+      <c r="H85">
+        <v>-0.1524987231235069</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01336830234913119</v>
+        <v>0.01917389829969032</v>
       </c>
       <c r="C86">
-        <v>-0.0157137021521774</v>
+        <v>-0.01364241294913405</v>
       </c>
       <c r="D86">
-        <v>-0.1362737501868964</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1221540457545711</v>
+      </c>
+      <c r="E86">
+        <v>0.02432453601142185</v>
+      </c>
+      <c r="F86">
+        <v>0.01713178342888425</v>
+      </c>
+      <c r="G86">
+        <v>-0.04436807656368657</v>
+      </c>
+      <c r="H86">
+        <v>0.05202725754759291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03190431563858999</v>
+        <v>0.03418830074421104</v>
       </c>
       <c r="C87">
-        <v>-0.008483109309628851</v>
+        <v>-0.02611284494961567</v>
       </c>
       <c r="D87">
-        <v>-0.1137763514153176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1241375830210755</v>
+      </c>
+      <c r="E87">
+        <v>0.09483893488877092</v>
+      </c>
+      <c r="F87">
+        <v>0.03233080309201047</v>
+      </c>
+      <c r="G87">
+        <v>-0.005632953848259714</v>
+      </c>
+      <c r="H87">
+        <v>0.02762208567574886</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.09482820536725917</v>
+        <v>0.08096284994787831</v>
       </c>
       <c r="C88">
-        <v>-0.07182109139594937</v>
+        <v>-0.06960129991310655</v>
       </c>
       <c r="D88">
-        <v>-0.06895158609770964</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03795274528975608</v>
+      </c>
+      <c r="E88">
+        <v>0.05620851287798211</v>
+      </c>
+      <c r="F88">
+        <v>0.004661549529217522</v>
+      </c>
+      <c r="G88">
+        <v>-0.02248610305542802</v>
+      </c>
+      <c r="H88">
+        <v>0.03859855849231759</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1925408401379807</v>
+        <v>0.2468034203972038</v>
       </c>
       <c r="C89">
-        <v>0.3715414061285299</v>
+        <v>0.3637039478006434</v>
       </c>
       <c r="D89">
-        <v>0.02294911501551326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.002572055081868713</v>
+      </c>
+      <c r="E89">
+        <v>0.08197680775855028</v>
+      </c>
+      <c r="F89">
+        <v>0.05802495034392538</v>
+      </c>
+      <c r="G89">
+        <v>-0.03595040147807994</v>
+      </c>
+      <c r="H89">
+        <v>0.03204071105147375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1862381941834563</v>
+        <v>0.2213239236741038</v>
       </c>
       <c r="C90">
-        <v>0.3070503303841015</v>
+        <v>0.2795855070958189</v>
       </c>
       <c r="D90">
-        <v>0.01859804265568191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01289238461748815</v>
+      </c>
+      <c r="E90">
+        <v>0.05601821951729408</v>
+      </c>
+      <c r="F90">
+        <v>0.001572385197603832</v>
+      </c>
+      <c r="G90">
+        <v>0.01065171714983366</v>
+      </c>
+      <c r="H90">
+        <v>0.0576878218668979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1911980637032549</v>
+        <v>0.1792120485375506</v>
       </c>
       <c r="C91">
-        <v>-0.1450817827933065</v>
+        <v>-0.1615798034040922</v>
       </c>
       <c r="D91">
-        <v>0.0420241452448107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08460094635766695</v>
+      </c>
+      <c r="E91">
+        <v>0.08760204457515412</v>
+      </c>
+      <c r="F91">
+        <v>-0.008105689177555633</v>
+      </c>
+      <c r="G91">
+        <v>-0.0318268716859854</v>
+      </c>
+      <c r="H91">
+        <v>-0.1558642739756738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1633802537935586</v>
+        <v>0.2001383943536209</v>
       </c>
       <c r="C92">
-        <v>0.2816523326459248</v>
+        <v>0.2842537803428993</v>
       </c>
       <c r="D92">
-        <v>-0.04685415325500604</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01355631756336096</v>
+      </c>
+      <c r="E92">
+        <v>0.07842251681577478</v>
+      </c>
+      <c r="F92">
+        <v>0.0375132294102133</v>
+      </c>
+      <c r="G92">
+        <v>-0.01938242008542062</v>
+      </c>
+      <c r="H92">
+        <v>0.0329014045180678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2099375082569281</v>
+        <v>0.2421346274586678</v>
       </c>
       <c r="C93">
-        <v>0.3284506470473954</v>
+        <v>0.2964175538682379</v>
       </c>
       <c r="D93">
-        <v>-0.001944198148834866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.00593313728966332</v>
+      </c>
+      <c r="E93">
+        <v>0.04102625717189386</v>
+      </c>
+      <c r="F93">
+        <v>-0.02896050356383828</v>
+      </c>
+      <c r="G93">
+        <v>-0.02552432834569888</v>
+      </c>
+      <c r="H93">
+        <v>0.01688364636605812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.404076573937306</v>
+        <v>0.3539136759241785</v>
       </c>
       <c r="C94">
-        <v>-0.2338913330774456</v>
+        <v>-0.2374660693847076</v>
       </c>
       <c r="D94">
-        <v>0.4507647712091993</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4423395099646795</v>
+      </c>
+      <c r="E94">
+        <v>0.1075160921405686</v>
+      </c>
+      <c r="F94">
+        <v>0.02888868145154481</v>
+      </c>
+      <c r="G94">
+        <v>0.583876192774166</v>
+      </c>
+      <c r="H94">
+        <v>0.1532166930239734</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09432247716642518</v>
+        <v>0.07133460970773027</v>
       </c>
       <c r="C95">
-        <v>0.02078755663279758</v>
+        <v>-0.03686763228755387</v>
       </c>
       <c r="D95">
-        <v>-0.07429917272260929</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09526934683814073</v>
+      </c>
+      <c r="E95">
+        <v>-0.1852024496611769</v>
+      </c>
+      <c r="F95">
+        <v>0.8964918931069109</v>
+      </c>
+      <c r="G95">
+        <v>-0.02590766077013924</v>
+      </c>
+      <c r="H95">
+        <v>-0.05965312725225323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1733559343941331</v>
+        <v>0.1687863628747676</v>
       </c>
       <c r="C98">
-        <v>-0.01928190177251145</v>
+        <v>-0.04960156075479594</v>
       </c>
       <c r="D98">
-        <v>-0.1221017765449036</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1487381301247635</v>
+      </c>
+      <c r="E98">
+        <v>-0.271074105477978</v>
+      </c>
+      <c r="F98">
+        <v>-0.1096109137800517</v>
+      </c>
+      <c r="G98">
+        <v>-0.009914106821583175</v>
+      </c>
+      <c r="H98">
+        <v>-0.01118618793433337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008533360543386664</v>
+        <v>0.008467702446680433</v>
       </c>
       <c r="C101">
-        <v>-0.02218657430524626</v>
+        <v>-0.02375170365546657</v>
       </c>
       <c r="D101">
-        <v>-0.06465407776700863</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07405711794711656</v>
+      </c>
+      <c r="E101">
+        <v>0.0596619364337769</v>
+      </c>
+      <c r="F101">
+        <v>-0.00117409211116074</v>
+      </c>
+      <c r="G101">
+        <v>-0.04155826401906763</v>
+      </c>
+      <c r="H101">
+        <v>0.07895765295649745</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1285879709807501</v>
+        <v>0.1181829989945671</v>
       </c>
       <c r="C102">
-        <v>-0.08591842811428721</v>
+        <v>-0.1112317518477065</v>
       </c>
       <c r="D102">
-        <v>0.03065258673239084</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04885819831069831</v>
+      </c>
+      <c r="E102">
+        <v>0.01294081773256324</v>
+      </c>
+      <c r="F102">
+        <v>0.02584913441523692</v>
+      </c>
+      <c r="G102">
+        <v>-0.05021804921523741</v>
+      </c>
+      <c r="H102">
+        <v>-0.02053152020535075</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
